--- a/data/faktenblatttabellen_2020-12-06.xlsx
+++ b/data/faktenblatttabellen_2020-12-06.xlsx
@@ -1432,9 +1432,7 @@
       <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
+      <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
